--- a/Sort and filter - Classwork.xlsx
+++ b/Sort and filter - Classwork.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3674" uniqueCount="39">
   <si>
     <t>Agent</t>
   </si>
@@ -36047,10 +36047,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:W126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36059,7 +36059,7 @@
     <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36091,7 +36091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -36123,7 +36123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -36155,7 +36155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -36187,7 +36187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -36219,7 +36219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -36251,7 +36251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -36283,7 +36283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -36315,7 +36315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -36347,7 +36347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -36379,7 +36379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -36414,7 +36414,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -36477,8 +36477,38 @@
       <c r="J13" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -36510,7 +36540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -36542,7 +36572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -40106,8 +40136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
